--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -1120,28 +1120,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
@@ -1149,23 +1127,27 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C22:G22"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="C2:G2"/>
@@ -1175,6 +1157,24 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>Kuuube's Wacom Nib Compatibility Mastersheet</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>CP-923</t>
+    <t>CP-923, CP-913</t>
   </si>
   <si>
     <t>ACK24918Z</t>
@@ -50,9 +50,6 @@
     <t>ACK24501Z</t>
   </si>
   <si>
-    <t>CP-913</t>
-  </si>
-  <si>
     <t>ACK-22211</t>
   </si>
   <si>
@@ -68,7 +65,7 @@
     <t>D1 Ballpoint</t>
   </si>
   <si>
-    <t>KP-132, KP-133</t>
+    <t>KP-132, KP-133, KP-130, ZP-130, XP-110, XP-120, GP-110, GP-120</t>
   </si>
   <si>
     <t>ACK-22208</t>
@@ -125,70 +122,70 @@
     <t>ACK-20014</t>
   </si>
   <si>
+    <t>FUZ-A141</t>
+  </si>
+  <si>
+    <t>FUZ-A010</t>
+  </si>
+  <si>
+    <t>FUZ-A121</t>
+  </si>
+  <si>
+    <t>FUZ-A154</t>
+  </si>
+  <si>
+    <t>FUZ-A120</t>
+  </si>
+  <si>
+    <t>PSI-A034</t>
+  </si>
+  <si>
     <t>???</t>
   </si>
   <si>
-    <t>FUZ-A141</t>
-  </si>
-  <si>
-    <t>FUZ-A010</t>
+    <t>PSI-A007</t>
+  </si>
+  <si>
+    <t>PSI-A043</t>
+  </si>
+  <si>
+    <t>PSI-A042</t>
+  </si>
+  <si>
+    <t>PSI-A066</t>
+  </si>
+  <si>
+    <t>PSI-A021</t>
+  </si>
+  <si>
+    <t>PSI-A051</t>
+  </si>
+  <si>
+    <t>ZP-600</t>
+  </si>
+  <si>
+    <t>PSI-A052</t>
   </si>
   <si>
     <t>FUZ-A010-03</t>
   </si>
   <si>
-    <t>FUZ-A121</t>
-  </si>
-  <si>
-    <t>FUZ-A154</t>
-  </si>
-  <si>
-    <t>FUZ-A120</t>
-  </si>
-  <si>
-    <t>PSI-A034</t>
-  </si>
-  <si>
-    <t>PSI-A007</t>
-  </si>
-  <si>
-    <t>PSI-A043</t>
-  </si>
-  <si>
-    <t>PSI-A042</t>
-  </si>
-  <si>
-    <t>PSI-A066</t>
+    <t>D1 Plastic</t>
+  </si>
+  <si>
+    <t>PSI-A024-BK</t>
+  </si>
+  <si>
+    <t>PSI-A025-R</t>
+  </si>
+  <si>
+    <t>PSI-A026-BL</t>
+  </si>
+  <si>
+    <t>PSI-A024-BK-01</t>
   </si>
   <si>
     <t>PSI-A011</t>
-  </si>
-  <si>
-    <t>PSI-A021</t>
-  </si>
-  <si>
-    <t>PSI-A051</t>
-  </si>
-  <si>
-    <t>ZP-600</t>
-  </si>
-  <si>
-    <t>PSI-A052</t>
-  </si>
-  <si>
-    <t>PSI-A024-BK</t>
-  </si>
-  <si>
-    <t>KP-130, ZP-130, XP-110, XP-120, GP-110, GP-120</t>
-  </si>
-  <si>
-    <t>PSI-A025-R</t>
-  </si>
-  <si>
-    <t>PSI-A026-BL</t>
-  </si>
-  <si>
-    <t>PSI-A024-BK-01</t>
   </si>
   <si>
     <t>PSI-A023</t>
@@ -650,51 +647,51 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -702,84 +699,84 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -790,336 +787,334 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
@@ -1147,34 +1142,33 @@
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1195,17 +1189,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -1216,42 +1210,42 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -1115,6 +1115,15 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
@@ -1142,33 +1151,24 @@
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>Kuuube's Wacom Nib Compatibility Mastersheet</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Compatible Pens</t>
   </si>
   <si>
-    <t>ACK24911Z</t>
+    <t>ACK-24911Z</t>
   </si>
   <si>
     <t>Standard</t>
@@ -35,25 +35,31 @@
     <t>CP-923, CP-913</t>
   </si>
   <si>
-    <t>ACK24918Z</t>
+    <t>ACK-24918Z</t>
   </si>
   <si>
     <t>Elastomer</t>
   </si>
   <si>
-    <t>ACK24919Z</t>
+    <t>ACK-24919Z</t>
   </si>
   <si>
     <t>Felt</t>
   </si>
   <si>
-    <t>ACK24501Z</t>
+    <t>ACK-24501Z</t>
+  </si>
+  <si>
+    <t>ACK-24801Z</t>
+  </si>
+  <si>
+    <t>ACP-500, KP-504E, KP-301E, KP-505</t>
+  </si>
+  <si>
+    <t>ACK-24819Z</t>
   </si>
   <si>
     <t>ACK-22211</t>
-  </si>
-  <si>
-    <t>KP-504E, KP-301E, KP-505</t>
   </si>
   <si>
     <t>ACK-22213</t>
@@ -672,139 +678,139 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -812,10 +818,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -826,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -834,10 +840,10 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -845,10 +851,10 @@
         <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -856,10 +862,10 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -867,10 +873,10 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -878,32 +884,32 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -911,10 +917,10 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -922,10 +928,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -933,74 +939,74 @@
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -1008,10 +1014,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -1019,10 +1025,10 @@
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -1030,54 +1036,54 @@
         <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>59</v>
+      <c r="A50" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53">
@@ -1085,10 +1091,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
@@ -1096,25 +1102,56 @@
         <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -1122,15 +1159,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -1155,20 +1183,22 @@
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1189,17 +1219,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1210,42 +1240,42 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -1143,15 +1143,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -1159,6 +1150,15 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -1185,20 +1185,20 @@
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
   <si>
     <t>Kuuube's Wacom Nib Compatibility Mastersheet</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>ACK-24819Z</t>
+  </si>
+  <si>
+    <t>ACK253010Z</t>
+  </si>
+  <si>
+    <t>Rubber</t>
   </si>
   <si>
     <t>ACK-22211</t>
@@ -645,23 +651,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -669,10 +686,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -680,7 +697,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -691,7 +708,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -702,24 +719,24 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -727,84 +744,84 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>2</v>
@@ -815,178 +832,178 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -1000,145 +1017,145 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1148,15 +1165,15 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
@@ -1219,17 +1236,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -1240,42 +1257,42 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -1169,11 +1169,11 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -53,7 +53,7 @@
     <t>ACK-24801Z</t>
   </si>
   <si>
-    <t>ACP-500, KP-504E, KP-301E, KP-505</t>
+    <t xml:space="preserve">ACP-500, ACP-501E, KP-504E, KP-301E, KP-505		</t>
   </si>
   <si>
     <t>ACK-24819Z</t>
@@ -1167,13 +1167,13 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -1167,13 +1167,13 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>

--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>Kuuube's Wacom Nib Compatibility Mastersheet</t>
   </si>
@@ -239,10 +239,13 @@
     <t>Kuuube's Wacom Pen Nib Guide</t>
   </si>
   <si>
+    <t>Kuuube's Wacom Pen Nib Compatibility Mastersheet</t>
+  </si>
+  <si>
     <t>Info</t>
   </si>
   <si>
-    <t>If you need to contact me personally, join my discord. I may not reply elsewhere.</t>
+    <t>The quickest way to contact me is to join my discord. I may take awhile to reply elsewhere.</t>
   </si>
   <si>
     <t>osu! Profile</t>
@@ -255,13 +258,46 @@
   </si>
   <si>
     <t>Youtube</t>
+  </si>
+  <si>
+    <t>Ko-fi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>Business Inquiries Email (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>DO NOT send me tablet sponsorship offers</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0563C1"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -323,6 +359,11 @@
       <color rgb="FFFF1600"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -371,6 +412,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,17 +1310,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1295,30 +1339,52 @@
         <v>80</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
+  <mergeCells count="15">
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:J15"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>
     <hyperlink r:id="rId2" ref="A5"/>
     <hyperlink r:id="rId3" ref="A6"/>
-    <hyperlink r:id="rId4" ref="A9"/>
+    <hyperlink r:id="rId4" ref="A7"/>
     <hyperlink r:id="rId5" ref="A10"/>
     <hyperlink r:id="rId6" ref="A11"/>
     <hyperlink r:id="rId7" ref="A12"/>
+    <hyperlink r:id="rId8" ref="A13"/>
+    <hyperlink r:id="rId9" ref="A14"/>
+    <hyperlink r:id="rId10" ref="A15"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
+++ b/kuuube's_wacom_nib_compatibility_mastersheet.xlsx
@@ -1357,11 +1357,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A1:K1"/>
@@ -1370,7 +1371,6 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A7:K7"/>
   </mergeCells>
   <hyperlinks>
